--- a/organizations_with_serials-v1.xlsx
+++ b/organizations_with_serials-v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasfiller/dev/china_directory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5723751-8BB9-674F-B23D-1D3E24AA014B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E5FBB1-3F91-3D48-98FB-A7B086BA8B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36680" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27420" yWindow="620" windowWidth="26160" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14644,11 +14644,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A518" workbookViewId="0">
+      <selection activeCell="C1127" sqref="C1127"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="49.5" customWidth="1"/>
+    <col min="6" max="6" width="37.83203125" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -54497,6 +54502,9 @@
       <c r="A962" t="s">
         <v>3715</v>
       </c>
+      <c r="B962">
+        <v>32</v>
+      </c>
       <c r="C962" t="s">
         <v>3716</v>
       </c>
@@ -54535,6 +54543,9 @@
       <c r="A963" t="s">
         <v>3722</v>
       </c>
+      <c r="B963">
+        <v>29</v>
+      </c>
       <c r="C963" t="s">
         <v>3723</v>
       </c>
@@ -54567,6 +54578,9 @@
       <c r="A964" t="s">
         <v>3722</v>
       </c>
+      <c r="B964">
+        <v>29</v>
+      </c>
       <c r="C964" t="s">
         <v>3723</v>
       </c>
@@ -54599,6 +54613,9 @@
       <c r="A965" t="s">
         <v>3734</v>
       </c>
+      <c r="B965">
+        <v>29</v>
+      </c>
       <c r="C965" t="s">
         <v>3723</v>
       </c>
@@ -54637,6 +54654,9 @@
       <c r="A966" t="s">
         <v>3734</v>
       </c>
+      <c r="B966">
+        <v>29</v>
+      </c>
       <c r="C966" t="s">
         <v>3723</v>
       </c>
@@ -54675,6 +54695,9 @@
       <c r="A967" t="s">
         <v>3734</v>
       </c>
+      <c r="B967">
+        <v>29</v>
+      </c>
       <c r="C967" t="s">
         <v>3723</v>
       </c>
@@ -54713,6 +54736,9 @@
       <c r="A968" t="s">
         <v>3734</v>
       </c>
+      <c r="B968">
+        <v>29</v>
+      </c>
       <c r="C968" t="s">
         <v>3723</v>
       </c>
@@ -54751,6 +54777,9 @@
       <c r="A969" t="s">
         <v>3746</v>
       </c>
+      <c r="B969">
+        <v>33</v>
+      </c>
       <c r="C969" t="s">
         <v>3747</v>
       </c>
@@ -54783,6 +54812,9 @@
       <c r="A970" t="s">
         <v>3746</v>
       </c>
+      <c r="B970">
+        <v>33</v>
+      </c>
       <c r="C970" t="s">
         <v>3747</v>
       </c>
@@ -54815,6 +54847,9 @@
       <c r="A971" t="s">
         <v>3746</v>
       </c>
+      <c r="B971">
+        <v>33</v>
+      </c>
       <c r="C971" t="s">
         <v>3747</v>
       </c>
@@ -54847,6 +54882,9 @@
       <c r="A972" t="s">
         <v>3746</v>
       </c>
+      <c r="B972">
+        <v>33</v>
+      </c>
       <c r="C972" t="s">
         <v>3747</v>
       </c>
@@ -54879,6 +54917,9 @@
       <c r="A973" t="s">
         <v>3746</v>
       </c>
+      <c r="B973">
+        <v>33</v>
+      </c>
       <c r="C973" t="s">
         <v>3747</v>
       </c>
@@ -54911,6 +54952,9 @@
       <c r="A974" t="s">
         <v>3756</v>
       </c>
+      <c r="B974">
+        <v>33</v>
+      </c>
       <c r="C974" t="s">
         <v>3747</v>
       </c>
@@ -54949,6 +54993,9 @@
       <c r="A975" t="s">
         <v>3756</v>
       </c>
+      <c r="B975">
+        <v>33</v>
+      </c>
       <c r="C975" t="s">
         <v>3747</v>
       </c>
@@ -54987,6 +55034,9 @@
       <c r="A976" t="s">
         <v>3756</v>
       </c>
+      <c r="B976">
+        <v>33</v>
+      </c>
       <c r="C976" t="s">
         <v>3747</v>
       </c>
@@ -55025,6 +55075,9 @@
       <c r="A977" t="s">
         <v>3756</v>
       </c>
+      <c r="B977">
+        <v>33</v>
+      </c>
       <c r="C977" t="s">
         <v>3747</v>
       </c>
@@ -55063,6 +55116,9 @@
       <c r="A978" t="s">
         <v>3756</v>
       </c>
+      <c r="B978">
+        <v>33</v>
+      </c>
       <c r="C978" t="s">
         <v>3747</v>
       </c>
@@ -55101,6 +55157,9 @@
       <c r="A979" t="s">
         <v>3756</v>
       </c>
+      <c r="B979">
+        <v>33</v>
+      </c>
       <c r="C979" t="s">
         <v>3747</v>
       </c>
@@ -55139,6 +55198,9 @@
       <c r="A980" t="s">
         <v>3774</v>
       </c>
+      <c r="B980">
+        <v>17</v>
+      </c>
       <c r="C980" t="s">
         <v>3775</v>
       </c>
@@ -55171,6 +55233,9 @@
       <c r="A981" t="s">
         <v>3774</v>
       </c>
+      <c r="B981">
+        <v>17</v>
+      </c>
       <c r="C981" t="s">
         <v>3775</v>
       </c>
@@ -55203,6 +55268,9 @@
       <c r="A982" t="s">
         <v>3774</v>
       </c>
+      <c r="B982">
+        <v>17</v>
+      </c>
       <c r="C982" t="s">
         <v>3775</v>
       </c>
@@ -55235,6 +55303,9 @@
       <c r="A983" t="s">
         <v>3774</v>
       </c>
+      <c r="B983">
+        <v>17</v>
+      </c>
       <c r="C983" t="s">
         <v>3775</v>
       </c>
@@ -55267,6 +55338,9 @@
       <c r="A984" t="s">
         <v>3774</v>
       </c>
+      <c r="B984">
+        <v>17</v>
+      </c>
       <c r="C984" t="s">
         <v>3775</v>
       </c>
@@ -55299,6 +55373,9 @@
       <c r="A985" t="s">
         <v>3774</v>
       </c>
+      <c r="B985">
+        <v>17</v>
+      </c>
       <c r="C985" t="s">
         <v>3775</v>
       </c>
@@ -55331,6 +55408,9 @@
       <c r="A986" t="s">
         <v>3774</v>
       </c>
+      <c r="B986">
+        <v>17</v>
+      </c>
       <c r="C986" t="s">
         <v>3775</v>
       </c>
@@ -55363,6 +55443,9 @@
       <c r="A987" t="s">
         <v>3774</v>
       </c>
+      <c r="B987">
+        <v>17</v>
+      </c>
       <c r="C987" t="s">
         <v>3775</v>
       </c>
@@ -55395,6 +55478,9 @@
       <c r="A988" t="s">
         <v>3774</v>
       </c>
+      <c r="B988">
+        <v>18</v>
+      </c>
       <c r="C988" t="s">
         <v>3775</v>
       </c>
@@ -55427,6 +55513,9 @@
       <c r="A989" t="s">
         <v>3774</v>
       </c>
+      <c r="B989">
+        <v>18</v>
+      </c>
       <c r="C989" t="s">
         <v>3775</v>
       </c>
@@ -55459,6 +55548,9 @@
       <c r="A990" t="s">
         <v>3800</v>
       </c>
+      <c r="B990">
+        <v>18</v>
+      </c>
       <c r="C990" t="s">
         <v>3775</v>
       </c>
@@ -55497,6 +55589,9 @@
       <c r="A991" t="s">
         <v>3803</v>
       </c>
+      <c r="B991">
+        <v>18</v>
+      </c>
       <c r="C991" t="s">
         <v>3775</v>
       </c>
@@ -55535,6 +55630,9 @@
       <c r="A992" t="s">
         <v>3808</v>
       </c>
+      <c r="B992">
+        <v>18</v>
+      </c>
       <c r="C992" t="s">
         <v>3775</v>
       </c>
@@ -55573,6 +55671,9 @@
       <c r="A993" t="s">
         <v>3813</v>
       </c>
+      <c r="B993">
+        <v>18</v>
+      </c>
       <c r="C993" t="s">
         <v>3775</v>
       </c>
@@ -55611,6 +55712,9 @@
       <c r="A994" t="s">
         <v>3816</v>
       </c>
+      <c r="B994">
+        <v>18</v>
+      </c>
       <c r="C994" t="s">
         <v>3775</v>
       </c>
@@ -55649,6 +55753,9 @@
       <c r="A995" t="s">
         <v>3819</v>
       </c>
+      <c r="B995">
+        <v>18</v>
+      </c>
       <c r="C995" t="s">
         <v>3775</v>
       </c>
@@ -55687,6 +55794,9 @@
       <c r="A996" t="s">
         <v>3824</v>
       </c>
+      <c r="B996">
+        <v>18</v>
+      </c>
       <c r="C996" t="s">
         <v>3775</v>
       </c>
@@ -55725,6 +55835,9 @@
       <c r="A997" t="s">
         <v>3829</v>
       </c>
+      <c r="B997">
+        <v>18</v>
+      </c>
       <c r="C997" t="s">
         <v>3775</v>
       </c>
@@ -55763,6 +55876,9 @@
       <c r="A998" t="s">
         <v>3834</v>
       </c>
+      <c r="B998">
+        <v>18</v>
+      </c>
       <c r="C998" t="s">
         <v>3775</v>
       </c>
@@ -55801,6 +55917,9 @@
       <c r="A999" t="s">
         <v>3839</v>
       </c>
+      <c r="B999">
+        <v>18</v>
+      </c>
       <c r="C999" t="s">
         <v>3775</v>
       </c>
@@ -55839,6 +55958,9 @@
       <c r="A1000" t="s">
         <v>3844</v>
       </c>
+      <c r="B1000">
+        <v>18</v>
+      </c>
       <c r="C1000" t="s">
         <v>3775</v>
       </c>
@@ -55877,6 +55999,9 @@
       <c r="A1001" t="s">
         <v>3848</v>
       </c>
+      <c r="B1001">
+        <v>31</v>
+      </c>
       <c r="C1001" t="s">
         <v>3849</v>
       </c>
@@ -55909,6 +56034,9 @@
       <c r="A1002" t="s">
         <v>3851</v>
       </c>
+      <c r="B1002">
+        <v>31</v>
+      </c>
       <c r="C1002" t="s">
         <v>3849</v>
       </c>
@@ -55947,6 +56075,9 @@
       <c r="A1003" t="s">
         <v>3851</v>
       </c>
+      <c r="B1003">
+        <v>31</v>
+      </c>
       <c r="C1003" t="s">
         <v>3849</v>
       </c>
@@ -55985,6 +56116,9 @@
       <c r="A1004" t="s">
         <v>3851</v>
       </c>
+      <c r="B1004">
+        <v>31</v>
+      </c>
       <c r="C1004" t="s">
         <v>3849</v>
       </c>
@@ -56023,6 +56157,9 @@
       <c r="A1005" t="s">
         <v>3856</v>
       </c>
+      <c r="B1005">
+        <v>33</v>
+      </c>
       <c r="C1005" t="s">
         <v>3857</v>
       </c>
@@ -56055,6 +56192,9 @@
       <c r="A1006" t="s">
         <v>3856</v>
       </c>
+      <c r="B1006">
+        <v>33</v>
+      </c>
       <c r="C1006" t="s">
         <v>3857</v>
       </c>
@@ -56087,6 +56227,9 @@
       <c r="A1007" t="s">
         <v>3856</v>
       </c>
+      <c r="B1007">
+        <v>33</v>
+      </c>
       <c r="C1007" t="s">
         <v>3857</v>
       </c>
@@ -56119,6 +56262,9 @@
       <c r="A1008" t="s">
         <v>3867</v>
       </c>
+      <c r="B1008">
+        <v>48</v>
+      </c>
       <c r="C1008" t="s">
         <v>3868</v>
       </c>
@@ -56151,6 +56297,9 @@
       <c r="A1009" t="s">
         <v>3867</v>
       </c>
+      <c r="B1009">
+        <v>48</v>
+      </c>
       <c r="C1009" t="s">
         <v>3868</v>
       </c>
@@ -56180,6 +56329,9 @@
       <c r="A1010" t="s">
         <v>3867</v>
       </c>
+      <c r="B1010">
+        <v>48</v>
+      </c>
       <c r="C1010" t="s">
         <v>3868</v>
       </c>
@@ -56209,6 +56361,9 @@
       <c r="A1011" t="s">
         <v>3867</v>
       </c>
+      <c r="B1011">
+        <v>48</v>
+      </c>
       <c r="C1011" t="s">
         <v>3868</v>
       </c>
@@ -56238,6 +56393,9 @@
       <c r="A1012" t="s">
         <v>3877</v>
       </c>
+      <c r="B1012">
+        <v>48</v>
+      </c>
       <c r="C1012" t="s">
         <v>3878</v>
       </c>
@@ -56270,6 +56428,9 @@
       <c r="A1013" t="s">
         <v>3877</v>
       </c>
+      <c r="B1013">
+        <v>48</v>
+      </c>
       <c r="C1013" t="s">
         <v>3878</v>
       </c>
@@ -56299,6 +56460,9 @@
       <c r="A1014" t="s">
         <v>3877</v>
       </c>
+      <c r="B1014">
+        <v>48</v>
+      </c>
       <c r="C1014" t="s">
         <v>3878</v>
       </c>
@@ -56328,6 +56492,9 @@
       <c r="A1015" t="s">
         <v>3877</v>
       </c>
+      <c r="B1015">
+        <v>48</v>
+      </c>
       <c r="C1015" t="s">
         <v>3878</v>
       </c>
@@ -56357,6 +56524,9 @@
       <c r="A1016" t="s">
         <v>3877</v>
       </c>
+      <c r="B1016">
+        <v>48</v>
+      </c>
       <c r="C1016" t="s">
         <v>3878</v>
       </c>
@@ -56386,6 +56556,9 @@
       <c r="A1017" t="s">
         <v>3877</v>
       </c>
+      <c r="B1017">
+        <v>48</v>
+      </c>
       <c r="C1017" t="s">
         <v>3878</v>
       </c>
@@ -56415,6 +56588,9 @@
       <c r="A1018" t="s">
         <v>3893</v>
       </c>
+      <c r="B1018">
+        <v>48</v>
+      </c>
       <c r="C1018" t="s">
         <v>3894</v>
       </c>
@@ -56447,6 +56623,9 @@
       <c r="A1019" t="s">
         <v>3893</v>
       </c>
+      <c r="B1019">
+        <v>48</v>
+      </c>
       <c r="C1019" t="s">
         <v>3894</v>
       </c>
@@ -56476,6 +56655,9 @@
       <c r="A1020" t="s">
         <v>3893</v>
       </c>
+      <c r="B1020">
+        <v>48</v>
+      </c>
       <c r="C1020" t="s">
         <v>3894</v>
       </c>
@@ -56505,6 +56687,9 @@
       <c r="A1021" t="s">
         <v>3893</v>
       </c>
+      <c r="B1021">
+        <v>48</v>
+      </c>
       <c r="C1021" t="s">
         <v>3894</v>
       </c>
@@ -56534,6 +56719,9 @@
       <c r="A1022" t="s">
         <v>3903</v>
       </c>
+      <c r="B1022">
+        <v>48</v>
+      </c>
       <c r="C1022" t="s">
         <v>3904</v>
       </c>
@@ -56566,6 +56754,9 @@
       <c r="A1023" t="s">
         <v>3903</v>
       </c>
+      <c r="B1023">
+        <v>48</v>
+      </c>
       <c r="C1023" t="s">
         <v>3904</v>
       </c>
@@ -56595,6 +56786,9 @@
       <c r="A1024" t="s">
         <v>3903</v>
       </c>
+      <c r="B1024">
+        <v>49</v>
+      </c>
       <c r="C1024" t="s">
         <v>3904</v>
       </c>
@@ -56624,6 +56818,9 @@
       <c r="A1025" t="s">
         <v>3903</v>
       </c>
+      <c r="B1025">
+        <v>49</v>
+      </c>
       <c r="C1025" t="s">
         <v>3904</v>
       </c>
@@ -56653,6 +56850,9 @@
       <c r="A1026" t="s">
         <v>3903</v>
       </c>
+      <c r="B1026">
+        <v>49</v>
+      </c>
       <c r="C1026" t="s">
         <v>3904</v>
       </c>
@@ -56682,6 +56882,9 @@
       <c r="A1027" t="s">
         <v>3903</v>
       </c>
+      <c r="B1027">
+        <v>49</v>
+      </c>
       <c r="C1027" t="s">
         <v>3904</v>
       </c>
@@ -56711,6 +56914,9 @@
       <c r="A1028" t="s">
         <v>3903</v>
       </c>
+      <c r="B1028">
+        <v>49</v>
+      </c>
       <c r="C1028" t="s">
         <v>3904</v>
       </c>
@@ -56740,6 +56946,9 @@
       <c r="A1029" t="s">
         <v>3903</v>
       </c>
+      <c r="B1029">
+        <v>49</v>
+      </c>
       <c r="C1029" t="s">
         <v>3904</v>
       </c>
@@ -56769,6 +56978,9 @@
       <c r="A1030" t="s">
         <v>3903</v>
       </c>
+      <c r="B1030">
+        <v>49</v>
+      </c>
       <c r="C1030" t="s">
         <v>3904</v>
       </c>
@@ -56798,6 +57010,9 @@
       <c r="A1031" t="s">
         <v>3903</v>
       </c>
+      <c r="B1031">
+        <v>49</v>
+      </c>
       <c r="C1031" t="s">
         <v>3904</v>
       </c>
@@ -56827,6 +57042,9 @@
       <c r="A1032" t="s">
         <v>3903</v>
       </c>
+      <c r="B1032">
+        <v>49</v>
+      </c>
       <c r="C1032" t="s">
         <v>3904</v>
       </c>
@@ -56856,6 +57074,9 @@
       <c r="A1033" t="s">
         <v>3903</v>
       </c>
+      <c r="B1033">
+        <v>49</v>
+      </c>
       <c r="C1033" t="s">
         <v>3904</v>
       </c>
@@ -56885,6 +57106,9 @@
       <c r="A1034" t="s">
         <v>3926</v>
       </c>
+      <c r="B1034">
+        <v>49</v>
+      </c>
       <c r="C1034" t="s">
         <v>3927</v>
       </c>
@@ -56914,6 +57138,9 @@
       <c r="A1035" t="s">
         <v>3926</v>
       </c>
+      <c r="B1035">
+        <v>49</v>
+      </c>
       <c r="C1035" t="s">
         <v>3927</v>
       </c>
@@ -56943,6 +57170,9 @@
       <c r="A1036" t="s">
         <v>3926</v>
       </c>
+      <c r="B1036">
+        <v>49</v>
+      </c>
       <c r="C1036" t="s">
         <v>3927</v>
       </c>
@@ -56972,6 +57202,9 @@
       <c r="A1037" t="s">
         <v>3926</v>
       </c>
+      <c r="B1037">
+        <v>49</v>
+      </c>
       <c r="C1037" t="s">
         <v>3927</v>
       </c>
@@ -57001,6 +57234,9 @@
       <c r="A1038" t="s">
         <v>3926</v>
       </c>
+      <c r="B1038">
+        <v>49</v>
+      </c>
       <c r="C1038" t="s">
         <v>3927</v>
       </c>
@@ -57030,6 +57266,9 @@
       <c r="A1039" t="s">
         <v>3926</v>
       </c>
+      <c r="B1039">
+        <v>49</v>
+      </c>
       <c r="C1039" t="s">
         <v>3927</v>
       </c>
@@ -57059,6 +57298,9 @@
       <c r="A1040" t="s">
         <v>3926</v>
       </c>
+      <c r="B1040">
+        <v>49</v>
+      </c>
       <c r="C1040" t="s">
         <v>3927</v>
       </c>
@@ -57088,6 +57330,9 @@
       <c r="A1041" t="s">
         <v>3926</v>
       </c>
+      <c r="B1041">
+        <v>49</v>
+      </c>
       <c r="C1041" t="s">
         <v>3927</v>
       </c>
@@ -57117,6 +57362,9 @@
       <c r="A1042" t="s">
         <v>3926</v>
       </c>
+      <c r="B1042">
+        <v>49</v>
+      </c>
       <c r="C1042" t="s">
         <v>3927</v>
       </c>
@@ -57146,6 +57394,9 @@
       <c r="A1043" t="s">
         <v>3926</v>
       </c>
+      <c r="B1043">
+        <v>49</v>
+      </c>
       <c r="C1043" t="s">
         <v>3927</v>
       </c>
@@ -57175,6 +57426,9 @@
       <c r="A1044" t="s">
         <v>3942</v>
       </c>
+      <c r="B1044">
+        <v>49</v>
+      </c>
       <c r="C1044" t="s">
         <v>3943</v>
       </c>
@@ -57207,6 +57461,9 @@
       <c r="A1045" t="s">
         <v>3942</v>
       </c>
+      <c r="B1045">
+        <v>49</v>
+      </c>
       <c r="C1045" t="s">
         <v>3943</v>
       </c>
@@ -57236,6 +57493,9 @@
       <c r="A1046" t="s">
         <v>3942</v>
       </c>
+      <c r="B1046">
+        <v>49</v>
+      </c>
       <c r="C1046" t="s">
         <v>3943</v>
       </c>
@@ -57268,6 +57528,9 @@
       <c r="A1047" t="s">
         <v>3950</v>
       </c>
+      <c r="B1047">
+        <v>32</v>
+      </c>
       <c r="C1047" t="s">
         <v>3951</v>
       </c>
@@ -57300,6 +57563,9 @@
       <c r="A1048" t="s">
         <v>3953</v>
       </c>
+      <c r="B1048">
+        <v>32</v>
+      </c>
       <c r="C1048" t="s">
         <v>3951</v>
       </c>
@@ -57338,6 +57604,9 @@
       <c r="A1049" t="s">
         <v>3953</v>
       </c>
+      <c r="B1049">
+        <v>32</v>
+      </c>
       <c r="C1049" t="s">
         <v>3951</v>
       </c>
@@ -57376,6 +57645,9 @@
       <c r="A1050" t="s">
         <v>3953</v>
       </c>
+      <c r="B1050">
+        <v>32</v>
+      </c>
       <c r="C1050" t="s">
         <v>3951</v>
       </c>
@@ -57414,6 +57686,9 @@
       <c r="A1051" t="s">
         <v>3953</v>
       </c>
+      <c r="B1051">
+        <v>32</v>
+      </c>
       <c r="C1051" t="s">
         <v>3951</v>
       </c>
@@ -57452,6 +57727,9 @@
       <c r="A1052" t="s">
         <v>3953</v>
       </c>
+      <c r="B1052">
+        <v>32</v>
+      </c>
       <c r="C1052" t="s">
         <v>3951</v>
       </c>
@@ -57490,6 +57768,9 @@
       <c r="A1053" t="s">
         <v>3962</v>
       </c>
+      <c r="B1053">
+        <v>21</v>
+      </c>
       <c r="C1053" t="s">
         <v>3963</v>
       </c>
@@ -57522,6 +57803,9 @@
       <c r="A1054" t="s">
         <v>3962</v>
       </c>
+      <c r="B1054">
+        <v>21</v>
+      </c>
       <c r="C1054" t="s">
         <v>3963</v>
       </c>
@@ -57554,6 +57838,9 @@
       <c r="A1055" t="s">
         <v>3962</v>
       </c>
+      <c r="B1055">
+        <v>21</v>
+      </c>
       <c r="C1055" t="s">
         <v>3963</v>
       </c>
@@ -57586,6 +57873,9 @@
       <c r="A1056" t="s">
         <v>3962</v>
       </c>
+      <c r="B1056">
+        <v>21</v>
+      </c>
       <c r="C1056" t="s">
         <v>3963</v>
       </c>
@@ -57618,6 +57908,9 @@
       <c r="A1057" t="s">
         <v>3962</v>
       </c>
+      <c r="B1057">
+        <v>21</v>
+      </c>
       <c r="C1057" t="s">
         <v>3963</v>
       </c>
@@ -57650,6 +57943,9 @@
       <c r="A1058" t="s">
         <v>3962</v>
       </c>
+      <c r="B1058">
+        <v>21</v>
+      </c>
       <c r="C1058" t="s">
         <v>3963</v>
       </c>
@@ -57682,6 +57978,9 @@
       <c r="A1059" t="s">
         <v>3962</v>
       </c>
+      <c r="B1059">
+        <v>21</v>
+      </c>
       <c r="C1059" t="s">
         <v>3963</v>
       </c>
@@ -57714,6 +58013,9 @@
       <c r="A1060" t="s">
         <v>3962</v>
       </c>
+      <c r="B1060">
+        <v>21</v>
+      </c>
       <c r="C1060" t="s">
         <v>3963</v>
       </c>
@@ -57746,6 +58048,9 @@
       <c r="A1061" t="s">
         <v>3962</v>
       </c>
+      <c r="B1061">
+        <v>21</v>
+      </c>
       <c r="C1061" t="s">
         <v>3963</v>
       </c>
@@ -57778,6 +58083,9 @@
       <c r="A1062" t="s">
         <v>3979</v>
       </c>
+      <c r="B1062">
+        <v>21</v>
+      </c>
       <c r="C1062" t="s">
         <v>3963</v>
       </c>
@@ -57816,6 +58124,9 @@
       <c r="A1063" t="s">
         <v>3980</v>
       </c>
+      <c r="B1063">
+        <v>21</v>
+      </c>
       <c r="C1063" t="s">
         <v>3963</v>
       </c>
@@ -57854,6 +58165,9 @@
       <c r="A1064" t="s">
         <v>3985</v>
       </c>
+      <c r="B1064">
+        <v>21</v>
+      </c>
       <c r="C1064" t="s">
         <v>3963</v>
       </c>
@@ -57892,6 +58206,9 @@
       <c r="A1065" t="s">
         <v>3991</v>
       </c>
+      <c r="B1065">
+        <v>22</v>
+      </c>
       <c r="C1065" t="s">
         <v>3963</v>
       </c>
@@ -57930,6 +58247,9 @@
       <c r="A1066" t="s">
         <v>3996</v>
       </c>
+      <c r="B1066">
+        <v>22</v>
+      </c>
       <c r="C1066" t="s">
         <v>3963</v>
       </c>
@@ -57968,6 +58288,9 @@
       <c r="A1067" t="s">
         <v>4001</v>
       </c>
+      <c r="B1067">
+        <v>22</v>
+      </c>
       <c r="C1067" t="s">
         <v>3963</v>
       </c>
@@ -58006,6 +58329,9 @@
       <c r="A1068" t="s">
         <v>4006</v>
       </c>
+      <c r="B1068">
+        <v>22</v>
+      </c>
       <c r="C1068" t="s">
         <v>3963</v>
       </c>
@@ -58044,6 +58370,9 @@
       <c r="A1069" t="s">
         <v>4011</v>
       </c>
+      <c r="B1069">
+        <v>22</v>
+      </c>
       <c r="C1069" t="s">
         <v>3963</v>
       </c>
@@ -58082,6 +58411,9 @@
       <c r="A1070" t="s">
         <v>4016</v>
       </c>
+      <c r="B1070">
+        <v>22</v>
+      </c>
       <c r="C1070" t="s">
         <v>3963</v>
       </c>
@@ -58120,6 +58452,9 @@
       <c r="A1071" t="s">
         <v>4021</v>
       </c>
+      <c r="B1071">
+        <v>22</v>
+      </c>
       <c r="C1071" t="s">
         <v>3963</v>
       </c>
@@ -58158,6 +58493,9 @@
       <c r="A1072" t="s">
         <v>4026</v>
       </c>
+      <c r="B1072">
+        <v>22</v>
+      </c>
       <c r="C1072" t="s">
         <v>3963</v>
       </c>
@@ -58196,6 +58534,9 @@
       <c r="A1073" t="s">
         <v>4031</v>
       </c>
+      <c r="B1073">
+        <v>22</v>
+      </c>
       <c r="C1073" t="s">
         <v>3963</v>
       </c>
@@ -58234,6 +58575,9 @@
       <c r="A1074" t="s">
         <v>4036</v>
       </c>
+      <c r="B1074">
+        <v>22</v>
+      </c>
       <c r="C1074" t="s">
         <v>3963</v>
       </c>
@@ -58272,6 +58616,9 @@
       <c r="A1075" t="s">
         <v>4041</v>
       </c>
+      <c r="B1075">
+        <v>22</v>
+      </c>
       <c r="C1075" t="s">
         <v>3963</v>
       </c>
@@ -58310,6 +58657,9 @@
       <c r="A1076" t="s">
         <v>4044</v>
       </c>
+      <c r="B1076">
+        <v>24</v>
+      </c>
       <c r="C1076" t="s">
         <v>4045</v>
       </c>
@@ -58342,6 +58692,9 @@
       <c r="A1077" t="s">
         <v>4044</v>
       </c>
+      <c r="B1077">
+        <v>24</v>
+      </c>
       <c r="C1077" t="s">
         <v>4045</v>
       </c>
@@ -58374,6 +58727,9 @@
       <c r="A1078" t="s">
         <v>4044</v>
       </c>
+      <c r="B1078">
+        <v>24</v>
+      </c>
       <c r="C1078" t="s">
         <v>4045</v>
       </c>
@@ -58406,6 +58762,9 @@
       <c r="A1079" t="s">
         <v>4044</v>
       </c>
+      <c r="B1079">
+        <v>24</v>
+      </c>
       <c r="C1079" t="s">
         <v>4045</v>
       </c>
@@ -58438,6 +58797,9 @@
       <c r="A1080" t="s">
         <v>4053</v>
       </c>
+      <c r="B1080">
+        <v>36</v>
+      </c>
       <c r="C1080" t="s">
         <v>4054</v>
       </c>
@@ -58470,6 +58832,9 @@
       <c r="A1081" t="s">
         <v>4053</v>
       </c>
+      <c r="B1081">
+        <v>36</v>
+      </c>
       <c r="C1081" t="s">
         <v>4054</v>
       </c>
@@ -58502,6 +58867,9 @@
       <c r="A1082" t="s">
         <v>4057</v>
       </c>
+      <c r="B1082">
+        <v>36</v>
+      </c>
       <c r="C1082" t="s">
         <v>4054</v>
       </c>
@@ -58540,6 +58908,9 @@
       <c r="A1083" t="s">
         <v>4057</v>
       </c>
+      <c r="B1083">
+        <v>36</v>
+      </c>
       <c r="C1083" t="s">
         <v>4054</v>
       </c>
@@ -58578,6 +58949,9 @@
       <c r="A1084" t="s">
         <v>4061</v>
       </c>
+      <c r="B1084">
+        <v>34</v>
+      </c>
       <c r="C1084" t="s">
         <v>4062</v>
       </c>
@@ -58610,6 +58984,9 @@
       <c r="A1085" t="s">
         <v>4061</v>
       </c>
+      <c r="B1085">
+        <v>34</v>
+      </c>
       <c r="C1085" t="s">
         <v>4062</v>
       </c>
@@ -58642,6 +59019,9 @@
       <c r="A1086" t="s">
         <v>4061</v>
       </c>
+      <c r="B1086">
+        <v>34</v>
+      </c>
       <c r="C1086" t="s">
         <v>4062</v>
       </c>
@@ -58674,6 +59054,9 @@
       <c r="A1087" t="s">
         <v>4061</v>
       </c>
+      <c r="B1087">
+        <v>34</v>
+      </c>
       <c r="C1087" t="s">
         <v>4062</v>
       </c>
@@ -58706,6 +59089,9 @@
       <c r="A1088" t="s">
         <v>4061</v>
       </c>
+      <c r="B1088">
+        <v>34</v>
+      </c>
       <c r="C1088" t="s">
         <v>4062</v>
       </c>
@@ -58738,6 +59124,9 @@
       <c r="A1089" t="s">
         <v>4061</v>
       </c>
+      <c r="B1089">
+        <v>34</v>
+      </c>
       <c r="C1089" t="s">
         <v>4062</v>
       </c>
@@ -58770,6 +59159,9 @@
       <c r="A1090" t="s">
         <v>4061</v>
       </c>
+      <c r="B1090">
+        <v>34</v>
+      </c>
       <c r="C1090" t="s">
         <v>4062</v>
       </c>
@@ -58802,6 +59194,9 @@
       <c r="A1091" t="s">
         <v>4061</v>
       </c>
+      <c r="B1091">
+        <v>34</v>
+      </c>
       <c r="C1091" t="s">
         <v>4062</v>
       </c>
@@ -58834,6 +59229,9 @@
       <c r="A1092" t="s">
         <v>4080</v>
       </c>
+      <c r="B1092">
+        <v>35</v>
+      </c>
       <c r="C1092" t="s">
         <v>4062</v>
       </c>
@@ -58872,6 +59270,9 @@
       <c r="A1093" t="s">
         <v>4081</v>
       </c>
+      <c r="B1093">
+        <v>35</v>
+      </c>
       <c r="C1093" t="s">
         <v>4062</v>
       </c>
@@ -58910,6 +59311,9 @@
       <c r="A1094" t="s">
         <v>4084</v>
       </c>
+      <c r="B1094">
+        <v>35</v>
+      </c>
       <c r="C1094" t="s">
         <v>4062</v>
       </c>
@@ -58948,6 +59352,9 @@
       <c r="A1095" t="s">
         <v>4086</v>
       </c>
+      <c r="B1095">
+        <v>35</v>
+      </c>
       <c r="C1095" t="s">
         <v>4062</v>
       </c>
@@ -58986,6 +59393,9 @@
       <c r="A1096" t="s">
         <v>4091</v>
       </c>
+      <c r="B1096">
+        <v>35</v>
+      </c>
       <c r="C1096" t="s">
         <v>4062</v>
       </c>
@@ -59024,6 +59434,9 @@
       <c r="A1097" t="s">
         <v>4094</v>
       </c>
+      <c r="B1097">
+        <v>35</v>
+      </c>
       <c r="C1097" t="s">
         <v>4062</v>
       </c>
@@ -59062,6 +59475,9 @@
       <c r="A1098" t="s">
         <v>4099</v>
       </c>
+      <c r="B1098">
+        <v>35</v>
+      </c>
       <c r="C1098" t="s">
         <v>4062</v>
       </c>
@@ -59100,6 +59516,9 @@
       <c r="A1099" t="s">
         <v>4104</v>
       </c>
+      <c r="B1099">
+        <v>35</v>
+      </c>
       <c r="C1099" t="s">
         <v>4062</v>
       </c>
@@ -59138,6 +59557,9 @@
       <c r="A1100" t="s">
         <v>4107</v>
       </c>
+      <c r="B1100">
+        <v>32</v>
+      </c>
       <c r="C1100" t="s">
         <v>4108</v>
       </c>
@@ -59176,6 +59598,9 @@
       <c r="A1101" t="s">
         <v>4107</v>
       </c>
+      <c r="B1101">
+        <v>32</v>
+      </c>
       <c r="C1101" t="s">
         <v>4108</v>
       </c>
@@ -59214,6 +59639,9 @@
       <c r="A1102" t="s">
         <v>4116</v>
       </c>
+      <c r="B1102">
+        <v>16</v>
+      </c>
       <c r="C1102" t="s">
         <v>177</v>
       </c>
@@ -59246,6 +59674,9 @@
       <c r="A1103" t="s">
         <v>4116</v>
       </c>
+      <c r="B1103">
+        <v>16</v>
+      </c>
       <c r="C1103" t="s">
         <v>177</v>
       </c>
@@ -59278,6 +59709,9 @@
       <c r="A1104" t="s">
         <v>4116</v>
       </c>
+      <c r="B1104">
+        <v>16</v>
+      </c>
       <c r="C1104" t="s">
         <v>177</v>
       </c>
@@ -59310,6 +59744,9 @@
       <c r="A1105" t="s">
         <v>4121</v>
       </c>
+      <c r="B1105">
+        <v>16</v>
+      </c>
       <c r="C1105" t="s">
         <v>177</v>
       </c>
@@ -59348,6 +59785,9 @@
       <c r="A1106" t="s">
         <v>4124</v>
       </c>
+      <c r="B1106">
+        <v>16</v>
+      </c>
       <c r="C1106" t="s">
         <v>177</v>
       </c>
@@ -59386,6 +59826,9 @@
       <c r="A1107" t="s">
         <v>4129</v>
       </c>
+      <c r="B1107">
+        <v>16</v>
+      </c>
       <c r="C1107" t="s">
         <v>177</v>
       </c>
@@ -59424,6 +59867,9 @@
       <c r="A1108" t="s">
         <v>4129</v>
       </c>
+      <c r="B1108">
+        <v>16</v>
+      </c>
       <c r="C1108" t="s">
         <v>177</v>
       </c>
@@ -59462,6 +59908,9 @@
       <c r="A1109" t="s">
         <v>4129</v>
       </c>
+      <c r="B1109">
+        <v>16</v>
+      </c>
       <c r="C1109" t="s">
         <v>177</v>
       </c>
@@ -59500,6 +59949,9 @@
       <c r="A1110" t="s">
         <v>4129</v>
       </c>
+      <c r="B1110">
+        <v>16</v>
+      </c>
       <c r="C1110" t="s">
         <v>177</v>
       </c>
@@ -59538,6 +59990,9 @@
       <c r="A1111" t="s">
         <v>4129</v>
       </c>
+      <c r="B1111">
+        <v>16</v>
+      </c>
       <c r="C1111" t="s">
         <v>177</v>
       </c>
@@ -59576,6 +60031,9 @@
       <c r="A1112" t="s">
         <v>4129</v>
       </c>
+      <c r="B1112">
+        <v>16</v>
+      </c>
       <c r="C1112" t="s">
         <v>177</v>
       </c>
@@ -59614,6 +60072,9 @@
       <c r="A1113" t="s">
         <v>4129</v>
       </c>
+      <c r="B1113">
+        <v>16</v>
+      </c>
       <c r="C1113" t="s">
         <v>177</v>
       </c>
@@ -59652,6 +60113,9 @@
       <c r="A1114" t="s">
         <v>4148</v>
       </c>
+      <c r="B1114">
+        <v>16</v>
+      </c>
       <c r="C1114" t="s">
         <v>177</v>
       </c>
@@ -59690,6 +60154,9 @@
       <c r="A1115" t="s">
         <v>4153</v>
       </c>
+      <c r="B1115">
+        <v>17</v>
+      </c>
       <c r="C1115" t="s">
         <v>177</v>
       </c>
@@ -59728,6 +60195,9 @@
       <c r="A1116" t="s">
         <v>4156</v>
       </c>
+      <c r="B1116">
+        <v>17</v>
+      </c>
       <c r="C1116" t="s">
         <v>177</v>
       </c>
@@ -59766,6 +60236,9 @@
       <c r="A1117" t="s">
         <v>4162</v>
       </c>
+      <c r="B1117">
+        <v>33</v>
+      </c>
       <c r="C1117" t="s">
         <v>4163</v>
       </c>
@@ -59798,6 +60271,9 @@
       <c r="A1118" t="s">
         <v>4165</v>
       </c>
+      <c r="B1118">
+        <v>33</v>
+      </c>
       <c r="C1118" t="s">
         <v>4163</v>
       </c>
@@ -59836,6 +60312,9 @@
       <c r="A1119" t="s">
         <v>4165</v>
       </c>
+      <c r="B1119">
+        <v>33</v>
+      </c>
       <c r="C1119" t="s">
         <v>4163</v>
       </c>
@@ -59874,6 +60353,9 @@
       <c r="A1120" t="s">
         <v>4165</v>
       </c>
+      <c r="B1120">
+        <v>33</v>
+      </c>
       <c r="C1120" t="s">
         <v>4163</v>
       </c>
@@ -59912,6 +60394,9 @@
       <c r="A1121" t="s">
         <v>4168</v>
       </c>
+      <c r="B1121">
+        <v>36</v>
+      </c>
       <c r="C1121" t="s">
         <v>4169</v>
       </c>
@@ -59944,6 +60429,9 @@
       <c r="A1122" t="s">
         <v>4168</v>
       </c>
+      <c r="B1122">
+        <v>36</v>
+      </c>
       <c r="C1122" t="s">
         <v>4169</v>
       </c>
@@ -59976,6 +60464,9 @@
       <c r="A1123" t="s">
         <v>4168</v>
       </c>
+      <c r="B1123">
+        <v>36</v>
+      </c>
       <c r="C1123" t="s">
         <v>4169</v>
       </c>
@@ -60008,6 +60499,9 @@
       <c r="A1124" t="s">
         <v>4173</v>
       </c>
+      <c r="B1124">
+        <v>36</v>
+      </c>
       <c r="C1124" t="s">
         <v>4169</v>
       </c>
@@ -60046,6 +60540,9 @@
       <c r="A1125" t="s">
         <v>4174</v>
       </c>
+      <c r="B1125">
+        <v>37</v>
+      </c>
       <c r="C1125" t="s">
         <v>4175</v>
       </c>
@@ -60084,6 +60581,9 @@
       <c r="A1126" t="s">
         <v>4174</v>
       </c>
+      <c r="B1126">
+        <v>37</v>
+      </c>
       <c r="C1126" t="s">
         <v>4175</v>
       </c>
@@ -60122,6 +60622,9 @@
       <c r="A1127" t="s">
         <v>4181</v>
       </c>
+      <c r="B1127">
+        <v>37</v>
+      </c>
       <c r="C1127" t="s">
         <v>4182</v>
       </c>
@@ -60154,6 +60657,9 @@
       <c r="A1128" t="s">
         <v>4181</v>
       </c>
+      <c r="B1128">
+        <v>37</v>
+      </c>
       <c r="C1128" t="s">
         <v>4182</v>
       </c>
@@ -60186,6 +60692,9 @@
       <c r="A1129" t="s">
         <v>4181</v>
       </c>
+      <c r="B1129">
+        <v>37</v>
+      </c>
       <c r="C1129" t="s">
         <v>4182</v>
       </c>
@@ -60218,6 +60727,9 @@
       <c r="A1130" t="s">
         <v>4186</v>
       </c>
+      <c r="B1130">
+        <v>37</v>
+      </c>
       <c r="C1130" t="s">
         <v>4182</v>
       </c>
@@ -60256,6 +60768,9 @@
       <c r="A1131" t="s">
         <v>4189</v>
       </c>
+      <c r="B1131">
+        <v>37</v>
+      </c>
       <c r="C1131" t="s">
         <v>4190</v>
       </c>
@@ -60294,6 +60809,9 @@
       <c r="A1132" t="s">
         <v>4189</v>
       </c>
+      <c r="B1132">
+        <v>37</v>
+      </c>
       <c r="C1132" t="s">
         <v>4190</v>
       </c>
@@ -60332,6 +60850,9 @@
       <c r="A1133" t="s">
         <v>4194</v>
       </c>
+      <c r="B1133">
+        <v>50</v>
+      </c>
       <c r="C1133" t="s">
         <v>4195</v>
       </c>
@@ -60370,6 +60891,9 @@
       <c r="A1134" t="s">
         <v>4194</v>
       </c>
+      <c r="B1134">
+        <v>50</v>
+      </c>
       <c r="C1134" t="s">
         <v>4195</v>
       </c>
@@ -60405,6 +60929,9 @@
       <c r="A1135" t="s">
         <v>4194</v>
       </c>
+      <c r="B1135">
+        <v>50</v>
+      </c>
       <c r="C1135" t="s">
         <v>4195</v>
       </c>
@@ -60440,6 +60967,9 @@
       <c r="A1136" t="s">
         <v>4194</v>
       </c>
+      <c r="B1136">
+        <v>50</v>
+      </c>
       <c r="C1136" t="s">
         <v>4195</v>
       </c>
@@ -60475,6 +61005,9 @@
       <c r="A1137" t="s">
         <v>4194</v>
       </c>
+      <c r="B1137">
+        <v>50</v>
+      </c>
       <c r="C1137" t="s">
         <v>4195</v>
       </c>
@@ -60510,6 +61043,9 @@
       <c r="A1138" t="s">
         <v>4194</v>
       </c>
+      <c r="B1138">
+        <v>50</v>
+      </c>
       <c r="C1138" t="s">
         <v>4195</v>
       </c>
@@ -60545,6 +61081,9 @@
       <c r="A1139" t="s">
         <v>4194</v>
       </c>
+      <c r="B1139">
+        <v>50</v>
+      </c>
       <c r="C1139" t="s">
         <v>4195</v>
       </c>
@@ -60580,6 +61119,9 @@
       <c r="A1140" t="s">
         <v>4194</v>
       </c>
+      <c r="B1140">
+        <v>50</v>
+      </c>
       <c r="C1140" t="s">
         <v>4195</v>
       </c>
@@ -60615,6 +61157,9 @@
       <c r="A1141" t="s">
         <v>4194</v>
       </c>
+      <c r="B1141">
+        <v>50</v>
+      </c>
       <c r="C1141" t="s">
         <v>4195</v>
       </c>
@@ -60650,6 +61195,9 @@
       <c r="A1142" t="s">
         <v>4215</v>
       </c>
+      <c r="B1142">
+        <v>50</v>
+      </c>
       <c r="C1142" t="s">
         <v>4195</v>
       </c>
@@ -60688,6 +61236,9 @@
       <c r="A1143" t="s">
         <v>4215</v>
       </c>
+      <c r="B1143">
+        <v>50</v>
+      </c>
       <c r="C1143" t="s">
         <v>4195</v>
       </c>
@@ -60723,6 +61274,9 @@
       <c r="A1144" t="s">
         <v>4215</v>
       </c>
+      <c r="B1144">
+        <v>50</v>
+      </c>
       <c r="C1144" t="s">
         <v>4195</v>
       </c>
@@ -60758,6 +61312,9 @@
       <c r="A1145" t="s">
         <v>4215</v>
       </c>
+      <c r="B1145">
+        <v>50</v>
+      </c>
       <c r="C1145" t="s">
         <v>4195</v>
       </c>
@@ -60793,6 +61350,9 @@
       <c r="A1146" t="s">
         <v>4215</v>
       </c>
+      <c r="B1146">
+        <v>50</v>
+      </c>
       <c r="C1146" t="s">
         <v>4195</v>
       </c>
@@ -60828,6 +61388,9 @@
       <c r="A1147" t="s">
         <v>4215</v>
       </c>
+      <c r="B1147">
+        <v>50</v>
+      </c>
       <c r="C1147" t="s">
         <v>4195</v>
       </c>
@@ -60863,6 +61426,9 @@
       <c r="A1148" t="s">
         <v>4215</v>
       </c>
+      <c r="B1148">
+        <v>50</v>
+      </c>
       <c r="C1148" t="s">
         <v>4195</v>
       </c>
@@ -60898,6 +61464,9 @@
       <c r="A1149" t="s">
         <v>4215</v>
       </c>
+      <c r="B1149">
+        <v>50</v>
+      </c>
       <c r="C1149" t="s">
         <v>4195</v>
       </c>
@@ -60933,6 +61502,9 @@
       <c r="A1150" t="s">
         <v>4215</v>
       </c>
+      <c r="B1150">
+        <v>50</v>
+      </c>
       <c r="C1150" t="s">
         <v>4195</v>
       </c>
@@ -60968,6 +61540,9 @@
       <c r="A1151" t="s">
         <v>4215</v>
       </c>
+      <c r="B1151">
+        <v>50</v>
+      </c>
       <c r="C1151" t="s">
         <v>4195</v>
       </c>
@@ -61003,6 +61578,9 @@
       <c r="A1152" t="s">
         <v>4237</v>
       </c>
+      <c r="B1152">
+        <v>50</v>
+      </c>
       <c r="C1152" t="s">
         <v>4195</v>
       </c>
@@ -61041,6 +61619,9 @@
       <c r="A1153" t="s">
         <v>4237</v>
       </c>
+      <c r="B1153">
+        <v>50</v>
+      </c>
       <c r="C1153" t="s">
         <v>4195</v>
       </c>
@@ -61076,6 +61657,9 @@
       <c r="A1154" t="s">
         <v>4237</v>
       </c>
+      <c r="B1154">
+        <v>50</v>
+      </c>
       <c r="C1154" t="s">
         <v>4195</v>
       </c>
@@ -61111,6 +61695,9 @@
       <c r="A1155" t="s">
         <v>4237</v>
       </c>
+      <c r="B1155">
+        <v>50</v>
+      </c>
       <c r="C1155" t="s">
         <v>4195</v>
       </c>
@@ -61146,6 +61733,9 @@
       <c r="A1156" t="s">
         <v>4237</v>
       </c>
+      <c r="B1156">
+        <v>50</v>
+      </c>
       <c r="C1156" t="s">
         <v>4195</v>
       </c>
@@ -61181,6 +61771,9 @@
       <c r="A1157" t="s">
         <v>4237</v>
       </c>
+      <c r="B1157">
+        <v>50</v>
+      </c>
       <c r="C1157" t="s">
         <v>4195</v>
       </c>
@@ -61216,6 +61809,9 @@
       <c r="A1158" t="s">
         <v>4237</v>
       </c>
+      <c r="B1158">
+        <v>50</v>
+      </c>
       <c r="C1158" t="s">
         <v>4195</v>
       </c>
@@ -61251,6 +61847,9 @@
       <c r="A1159" t="s">
         <v>4237</v>
       </c>
+      <c r="B1159">
+        <v>50</v>
+      </c>
       <c r="C1159" t="s">
         <v>4195</v>
       </c>
@@ -61286,6 +61885,9 @@
       <c r="A1160" t="s">
         <v>4237</v>
       </c>
+      <c r="B1160">
+        <v>50</v>
+      </c>
       <c r="C1160" t="s">
         <v>4195</v>
       </c>
@@ -61321,6 +61923,9 @@
       <c r="A1161" t="s">
         <v>4252</v>
       </c>
+      <c r="B1161">
+        <v>50</v>
+      </c>
       <c r="C1161" t="s">
         <v>4195</v>
       </c>
@@ -61359,6 +61964,9 @@
       <c r="A1162" t="s">
         <v>4252</v>
       </c>
+      <c r="B1162">
+        <v>50</v>
+      </c>
       <c r="C1162" t="s">
         <v>4195</v>
       </c>
@@ -61394,6 +62002,9 @@
       <c r="A1163" t="s">
         <v>4252</v>
       </c>
+      <c r="B1163">
+        <v>50</v>
+      </c>
       <c r="C1163" t="s">
         <v>4195</v>
       </c>
@@ -61429,6 +62040,9 @@
       <c r="A1164" t="s">
         <v>4252</v>
       </c>
+      <c r="B1164">
+        <v>50</v>
+      </c>
       <c r="C1164" t="s">
         <v>4195</v>
       </c>
@@ -61464,6 +62078,9 @@
       <c r="A1165" t="s">
         <v>4252</v>
       </c>
+      <c r="B1165">
+        <v>50</v>
+      </c>
       <c r="C1165" t="s">
         <v>4195</v>
       </c>
@@ -61499,6 +62116,9 @@
       <c r="A1166" t="s">
         <v>4252</v>
       </c>
+      <c r="B1166">
+        <v>50</v>
+      </c>
       <c r="C1166" t="s">
         <v>4195</v>
       </c>
@@ -61534,6 +62154,9 @@
       <c r="A1167" t="s">
         <v>4252</v>
       </c>
+      <c r="B1167">
+        <v>50</v>
+      </c>
       <c r="C1167" t="s">
         <v>4195</v>
       </c>
@@ -61569,6 +62192,9 @@
       <c r="A1168" t="s">
         <v>4252</v>
       </c>
+      <c r="B1168">
+        <v>50</v>
+      </c>
       <c r="C1168" t="s">
         <v>4195</v>
       </c>
@@ -61604,6 +62230,9 @@
       <c r="A1169" t="s">
         <v>4252</v>
       </c>
+      <c r="B1169">
+        <v>50</v>
+      </c>
       <c r="C1169" t="s">
         <v>4195</v>
       </c>
@@ -61639,6 +62268,9 @@
       <c r="A1170" t="s">
         <v>4252</v>
       </c>
+      <c r="B1170">
+        <v>50</v>
+      </c>
       <c r="C1170" t="s">
         <v>4195</v>
       </c>
@@ -61674,6 +62306,9 @@
       <c r="A1171" t="s">
         <v>4252</v>
       </c>
+      <c r="B1171">
+        <v>50</v>
+      </c>
       <c r="C1171" t="s">
         <v>4195</v>
       </c>
@@ -61709,6 +62344,9 @@
       <c r="A1172" t="s">
         <v>4273</v>
       </c>
+      <c r="B1172">
+        <v>51</v>
+      </c>
       <c r="C1172" t="s">
         <v>4195</v>
       </c>
@@ -61744,6 +62382,9 @@
       <c r="A1173" t="s">
         <v>4274</v>
       </c>
+      <c r="B1173">
+        <v>51</v>
+      </c>
       <c r="C1173" t="s">
         <v>4195</v>
       </c>
@@ -61779,6 +62420,9 @@
       <c r="A1174" t="s">
         <v>4275</v>
       </c>
+      <c r="B1174">
+        <v>51</v>
+      </c>
       <c r="C1174" t="s">
         <v>4195</v>
       </c>
@@ -61814,6 +62458,9 @@
       <c r="A1175" t="s">
         <v>4276</v>
       </c>
+      <c r="B1175">
+        <v>51</v>
+      </c>
       <c r="C1175" t="s">
         <v>4195</v>
       </c>
@@ -61849,6 +62496,9 @@
       <c r="A1176" t="s">
         <v>4279</v>
       </c>
+      <c r="B1176">
+        <v>52</v>
+      </c>
       <c r="C1176" t="s">
         <v>4195</v>
       </c>
@@ -61884,6 +62534,9 @@
       <c r="A1177" t="s">
         <v>4281</v>
       </c>
+      <c r="B1177">
+        <v>52</v>
+      </c>
       <c r="C1177" t="s">
         <v>4195</v>
       </c>
@@ -61919,6 +62572,9 @@
       <c r="A1178" t="s">
         <v>4282</v>
       </c>
+      <c r="B1178">
+        <v>28</v>
+      </c>
       <c r="C1178" t="s">
         <v>4283</v>
       </c>
@@ -61951,6 +62607,9 @@
       <c r="A1179" t="s">
         <v>4282</v>
       </c>
+      <c r="B1179">
+        <v>28</v>
+      </c>
       <c r="C1179" t="s">
         <v>4283</v>
       </c>
@@ -61983,6 +62642,9 @@
       <c r="A1180" t="s">
         <v>4286</v>
       </c>
+      <c r="B1180">
+        <v>28</v>
+      </c>
       <c r="C1180" t="s">
         <v>4283</v>
       </c>
@@ -62021,6 +62683,9 @@
       <c r="A1181" t="s">
         <v>4286</v>
       </c>
+      <c r="B1181">
+        <v>28</v>
+      </c>
       <c r="C1181" t="s">
         <v>4283</v>
       </c>
@@ -62059,6 +62724,9 @@
       <c r="A1182" t="s">
         <v>4291</v>
       </c>
+      <c r="B1182">
+        <v>26</v>
+      </c>
       <c r="C1182" t="s">
         <v>4292</v>
       </c>
@@ -62091,6 +62759,9 @@
       <c r="A1183" t="s">
         <v>4291</v>
       </c>
+      <c r="B1183">
+        <v>26</v>
+      </c>
       <c r="C1183" t="s">
         <v>4292</v>
       </c>
@@ -62123,6 +62794,9 @@
       <c r="A1184" t="s">
         <v>4291</v>
       </c>
+      <c r="B1184">
+        <v>26</v>
+      </c>
       <c r="C1184" t="s">
         <v>4292</v>
       </c>
@@ -62155,6 +62829,9 @@
       <c r="A1185" t="s">
         <v>4291</v>
       </c>
+      <c r="B1185">
+        <v>26</v>
+      </c>
       <c r="C1185" t="s">
         <v>4292</v>
       </c>
@@ -62187,6 +62864,9 @@
       <c r="A1186" t="s">
         <v>4299</v>
       </c>
+      <c r="B1186">
+        <v>27</v>
+      </c>
       <c r="C1186" t="s">
         <v>4292</v>
       </c>
@@ -62225,6 +62905,9 @@
       <c r="A1187" t="s">
         <v>4302</v>
       </c>
+      <c r="B1187">
+        <v>30</v>
+      </c>
       <c r="C1187" t="s">
         <v>4303</v>
       </c>
@@ -62257,6 +62940,9 @@
       <c r="A1188" t="s">
         <v>4302</v>
       </c>
+      <c r="B1188">
+        <v>30</v>
+      </c>
       <c r="C1188" t="s">
         <v>4303</v>
       </c>
@@ -62289,6 +62975,9 @@
       <c r="A1189" t="s">
         <v>4302</v>
       </c>
+      <c r="B1189">
+        <v>30</v>
+      </c>
       <c r="C1189" t="s">
         <v>4303</v>
       </c>
@@ -62321,6 +63010,9 @@
       <c r="A1190" t="s">
         <v>4302</v>
       </c>
+      <c r="B1190">
+        <v>30</v>
+      </c>
       <c r="C1190" t="s">
         <v>4303</v>
       </c>
@@ -62353,6 +63045,9 @@
       <c r="A1191" t="s">
         <v>4305</v>
       </c>
+      <c r="B1191">
+        <v>30</v>
+      </c>
       <c r="C1191" t="s">
         <v>4303</v>
       </c>
@@ -62391,6 +63086,9 @@
       <c r="A1192" t="s">
         <v>4305</v>
       </c>
+      <c r="B1192">
+        <v>30</v>
+      </c>
       <c r="C1192" t="s">
         <v>4303</v>
       </c>
@@ -62429,6 +63127,9 @@
       <c r="A1193" t="s">
         <v>4305</v>
       </c>
+      <c r="B1193">
+        <v>30</v>
+      </c>
       <c r="C1193" t="s">
         <v>4303</v>
       </c>
@@ -62467,6 +63168,9 @@
       <c r="A1194" t="s">
         <v>4305</v>
       </c>
+      <c r="B1194">
+        <v>30</v>
+      </c>
       <c r="C1194" t="s">
         <v>4303</v>
       </c>
@@ -62505,6 +63209,9 @@
       <c r="A1195" t="s">
         <v>4312</v>
       </c>
+      <c r="B1195">
+        <v>38</v>
+      </c>
       <c r="C1195" t="s">
         <v>4313</v>
       </c>
@@ -62537,6 +63244,9 @@
       <c r="A1196" t="s">
         <v>4312</v>
       </c>
+      <c r="B1196">
+        <v>38</v>
+      </c>
       <c r="C1196" t="s">
         <v>4313</v>
       </c>
@@ -62569,6 +63279,9 @@
       <c r="A1197" t="s">
         <v>4312</v>
       </c>
+      <c r="B1197">
+        <v>38</v>
+      </c>
       <c r="C1197" t="s">
         <v>4313</v>
       </c>
@@ -62601,6 +63314,9 @@
       <c r="A1198" t="s">
         <v>4312</v>
       </c>
+      <c r="B1198">
+        <v>38</v>
+      </c>
       <c r="C1198" t="s">
         <v>4313</v>
       </c>
@@ -62633,6 +63349,9 @@
       <c r="A1199" t="s">
         <v>4312</v>
       </c>
+      <c r="B1199">
+        <v>38</v>
+      </c>
       <c r="C1199" t="s">
         <v>4313</v>
       </c>
@@ -62665,6 +63384,9 @@
       <c r="A1200" t="s">
         <v>4331</v>
       </c>
+      <c r="B1200">
+        <v>38</v>
+      </c>
       <c r="C1200" t="s">
         <v>4332</v>
       </c>
@@ -62697,6 +63419,9 @@
       <c r="A1201" t="s">
         <v>4331</v>
       </c>
+      <c r="B1201">
+        <v>38</v>
+      </c>
       <c r="C1201" t="s">
         <v>4332</v>
       </c>
@@ -62729,6 +63454,9 @@
       <c r="A1202" t="s">
         <v>4336</v>
       </c>
+      <c r="B1202">
+        <v>38</v>
+      </c>
       <c r="C1202" t="s">
         <v>4332</v>
       </c>
@@ -62767,6 +63495,9 @@
       <c r="A1203" t="s">
         <v>4336</v>
       </c>
+      <c r="B1203">
+        <v>38</v>
+      </c>
       <c r="C1203" t="s">
         <v>4332</v>
       </c>
@@ -62805,6 +63536,9 @@
       <c r="A1204" t="s">
         <v>4336</v>
       </c>
+      <c r="B1204">
+        <v>38</v>
+      </c>
       <c r="C1204" t="s">
         <v>4332</v>
       </c>
@@ -62843,6 +63577,9 @@
       <c r="A1205" t="s">
         <v>4336</v>
       </c>
+      <c r="B1205">
+        <v>38</v>
+      </c>
       <c r="C1205" t="s">
         <v>4332</v>
       </c>
@@ -62881,6 +63618,9 @@
       <c r="A1206" t="s">
         <v>4336</v>
       </c>
+      <c r="B1206">
+        <v>38</v>
+      </c>
       <c r="C1206" t="s">
         <v>4332</v>
       </c>
@@ -62919,6 +63659,9 @@
       <c r="A1207" t="s">
         <v>4354</v>
       </c>
+      <c r="B1207">
+        <v>38</v>
+      </c>
       <c r="C1207" t="s">
         <v>4355</v>
       </c>
@@ -62951,6 +63694,9 @@
       <c r="A1208" t="s">
         <v>4354</v>
       </c>
+      <c r="B1208">
+        <v>38</v>
+      </c>
       <c r="C1208" t="s">
         <v>4355</v>
       </c>
@@ -62983,6 +63729,9 @@
       <c r="A1209" t="s">
         <v>4354</v>
       </c>
+      <c r="B1209">
+        <v>38</v>
+      </c>
       <c r="C1209" t="s">
         <v>4355</v>
       </c>
@@ -63015,6 +63764,9 @@
       <c r="A1210" t="s">
         <v>4354</v>
       </c>
+      <c r="B1210">
+        <v>38</v>
+      </c>
       <c r="C1210" t="s">
         <v>4355</v>
       </c>
@@ -63047,6 +63799,9 @@
       <c r="A1211" t="s">
         <v>4354</v>
       </c>
+      <c r="B1211">
+        <v>38</v>
+      </c>
       <c r="C1211" t="s">
         <v>4355</v>
       </c>
@@ -63079,6 +63834,9 @@
       <c r="A1212" t="s">
         <v>4354</v>
       </c>
+      <c r="B1212">
+        <v>38</v>
+      </c>
       <c r="C1212" t="s">
         <v>4355</v>
       </c>
@@ -63111,6 +63869,9 @@
       <c r="A1213" t="s">
         <v>4354</v>
       </c>
+      <c r="B1213">
+        <v>39</v>
+      </c>
       <c r="C1213" t="s">
         <v>4355</v>
       </c>
@@ -63143,6 +63904,9 @@
       <c r="A1214" t="s">
         <v>4377</v>
       </c>
+      <c r="B1214">
+        <v>39</v>
+      </c>
       <c r="C1214" t="s">
         <v>4355</v>
       </c>
@@ -63181,6 +63945,9 @@
       <c r="A1215" t="s">
         <v>4382</v>
       </c>
+      <c r="B1215">
+        <v>39</v>
+      </c>
       <c r="C1215" t="s">
         <v>4355</v>
       </c>
@@ -63219,6 +63986,9 @@
       <c r="A1216" t="s">
         <v>4387</v>
       </c>
+      <c r="B1216">
+        <v>39</v>
+      </c>
       <c r="C1216" t="s">
         <v>4355</v>
       </c>
@@ -63257,6 +64027,9 @@
       <c r="A1217" t="s">
         <v>4394</v>
       </c>
+      <c r="B1217">
+        <v>39</v>
+      </c>
       <c r="C1217" t="s">
         <v>4395</v>
       </c>
@@ -63289,6 +64062,9 @@
       <c r="A1218" t="s">
         <v>4394</v>
       </c>
+      <c r="B1218">
+        <v>39</v>
+      </c>
       <c r="C1218" t="s">
         <v>4395</v>
       </c>
@@ -63321,6 +64097,9 @@
       <c r="A1219" t="s">
         <v>4394</v>
       </c>
+      <c r="B1219">
+        <v>39</v>
+      </c>
       <c r="C1219" t="s">
         <v>4395</v>
       </c>
@@ -63353,6 +64132,9 @@
       <c r="A1220" t="s">
         <v>4394</v>
       </c>
+      <c r="B1220">
+        <v>39</v>
+      </c>
       <c r="C1220" t="s">
         <v>4395</v>
       </c>
@@ -63385,6 +64167,9 @@
       <c r="A1221" t="s">
         <v>4394</v>
       </c>
+      <c r="B1221">
+        <v>39</v>
+      </c>
       <c r="C1221" t="s">
         <v>4395</v>
       </c>
@@ -63417,6 +64202,9 @@
       <c r="A1222" t="s">
         <v>4394</v>
       </c>
+      <c r="B1222">
+        <v>39</v>
+      </c>
       <c r="C1222" t="s">
         <v>4395</v>
       </c>
@@ -63449,6 +64237,9 @@
       <c r="A1223" t="s">
         <v>4411</v>
       </c>
+      <c r="B1223">
+        <v>39</v>
+      </c>
       <c r="C1223" t="s">
         <v>4395</v>
       </c>
@@ -63487,6 +64278,9 @@
       <c r="A1224" t="s">
         <v>4414</v>
       </c>
+      <c r="B1224">
+        <v>39</v>
+      </c>
       <c r="C1224" t="s">
         <v>4415</v>
       </c>
@@ -63519,6 +64313,9 @@
       <c r="A1225" t="s">
         <v>4414</v>
       </c>
+      <c r="B1225">
+        <v>39</v>
+      </c>
       <c r="C1225" t="s">
         <v>4415</v>
       </c>
@@ -63551,6 +64348,9 @@
       <c r="A1226" t="s">
         <v>4414</v>
       </c>
+      <c r="B1226">
+        <v>39</v>
+      </c>
       <c r="C1226" t="s">
         <v>4415</v>
       </c>
@@ -63583,6 +64383,9 @@
       <c r="A1227" t="s">
         <v>4414</v>
       </c>
+      <c r="B1227">
+        <v>39</v>
+      </c>
       <c r="C1227" t="s">
         <v>4415</v>
       </c>
@@ -63615,6 +64418,9 @@
       <c r="A1228" t="s">
         <v>4414</v>
       </c>
+      <c r="B1228">
+        <v>39</v>
+      </c>
       <c r="C1228" t="s">
         <v>4415</v>
       </c>
@@ -63647,6 +64453,9 @@
       <c r="A1229" t="s">
         <v>4414</v>
       </c>
+      <c r="B1229">
+        <v>39</v>
+      </c>
       <c r="C1229" t="s">
         <v>4415</v>
       </c>
@@ -63679,6 +64488,9 @@
       <c r="A1230" t="s">
         <v>4414</v>
       </c>
+      <c r="B1230">
+        <v>39</v>
+      </c>
       <c r="C1230" t="s">
         <v>4415</v>
       </c>
@@ -63711,6 +64523,9 @@
       <c r="A1231" t="s">
         <v>4414</v>
       </c>
+      <c r="B1231">
+        <v>39</v>
+      </c>
       <c r="C1231" t="s">
         <v>4415</v>
       </c>
@@ -63743,6 +64558,9 @@
       <c r="A1232" t="s">
         <v>4414</v>
       </c>
+      <c r="B1232">
+        <v>39</v>
+      </c>
       <c r="C1232" t="s">
         <v>4415</v>
       </c>
@@ -63775,6 +64593,9 @@
       <c r="A1233" t="s">
         <v>4414</v>
       </c>
+      <c r="B1233">
+        <v>40</v>
+      </c>
       <c r="C1233" t="s">
         <v>4415</v>
       </c>
@@ -63807,6 +64628,9 @@
       <c r="A1234" t="s">
         <v>4414</v>
       </c>
+      <c r="B1234">
+        <v>40</v>
+      </c>
       <c r="C1234" t="s">
         <v>4415</v>
       </c>
@@ -63839,6 +64663,9 @@
       <c r="A1235" t="s">
         <v>4441</v>
       </c>
+      <c r="B1235">
+        <v>40</v>
+      </c>
       <c r="C1235" t="s">
         <v>4442</v>
       </c>
@@ -63871,6 +64698,9 @@
       <c r="A1236" t="s">
         <v>4441</v>
       </c>
+      <c r="B1236">
+        <v>40</v>
+      </c>
       <c r="C1236" t="s">
         <v>4442</v>
       </c>
@@ -63903,6 +64733,9 @@
       <c r="A1237" t="s">
         <v>4446</v>
       </c>
+      <c r="B1237">
+        <v>40</v>
+      </c>
       <c r="C1237" t="s">
         <v>4447</v>
       </c>
@@ -63935,6 +64768,9 @@
       <c r="A1238" t="s">
         <v>4446</v>
       </c>
+      <c r="B1238">
+        <v>40</v>
+      </c>
       <c r="C1238" t="s">
         <v>4447</v>
       </c>
@@ -63967,6 +64803,9 @@
       <c r="A1239" t="s">
         <v>4446</v>
       </c>
+      <c r="B1239">
+        <v>40</v>
+      </c>
       <c r="C1239" t="s">
         <v>4447</v>
       </c>
@@ -63999,6 +64838,9 @@
       <c r="A1240" t="s">
         <v>4455</v>
       </c>
+      <c r="B1240">
+        <v>26</v>
+      </c>
       <c r="C1240" t="s">
         <v>4456</v>
       </c>
@@ -64031,6 +64873,9 @@
       <c r="A1241" t="s">
         <v>4455</v>
       </c>
+      <c r="B1241">
+        <v>26</v>
+      </c>
       <c r="C1241" t="s">
         <v>4456</v>
       </c>
@@ -64063,6 +64908,9 @@
       <c r="A1242" t="s">
         <v>4455</v>
       </c>
+      <c r="B1242">
+        <v>26</v>
+      </c>
       <c r="C1242" t="s">
         <v>4456</v>
       </c>
@@ -64095,6 +64943,9 @@
       <c r="A1243" t="s">
         <v>4466</v>
       </c>
+      <c r="B1243">
+        <v>26</v>
+      </c>
       <c r="C1243" t="s">
         <v>4467</v>
       </c>
@@ -64127,6 +64978,9 @@
       <c r="A1244" t="s">
         <v>4466</v>
       </c>
+      <c r="B1244">
+        <v>26</v>
+      </c>
       <c r="C1244" t="s">
         <v>4467</v>
       </c>
@@ -64159,6 +65013,9 @@
       <c r="A1245" t="s">
         <v>4471</v>
       </c>
+      <c r="B1245">
+        <v>26</v>
+      </c>
       <c r="C1245" t="s">
         <v>4467</v>
       </c>
@@ -64197,6 +65054,9 @@
       <c r="A1246" t="s">
         <v>4476</v>
       </c>
+      <c r="B1246">
+        <v>26</v>
+      </c>
       <c r="C1246" t="s">
         <v>4467</v>
       </c>
@@ -64235,6 +65095,9 @@
       <c r="A1247" t="s">
         <v>4481</v>
       </c>
+      <c r="B1247">
+        <v>26</v>
+      </c>
       <c r="C1247" t="s">
         <v>4467</v>
       </c>
@@ -64273,6 +65136,9 @@
       <c r="A1248" t="s">
         <v>4486</v>
       </c>
+      <c r="B1248">
+        <v>26</v>
+      </c>
       <c r="C1248" t="s">
         <v>4467</v>
       </c>
@@ -64311,6 +65177,9 @@
       <c r="A1249" t="s">
         <v>4490</v>
       </c>
+      <c r="B1249">
+        <v>26</v>
+      </c>
       <c r="C1249" t="s">
         <v>4467</v>
       </c>
@@ -64349,6 +65218,9 @@
       <c r="A1250" t="s">
         <v>4496</v>
       </c>
+      <c r="B1250">
+        <v>26</v>
+      </c>
       <c r="C1250" t="s">
         <v>4467</v>
       </c>
@@ -64387,6 +65259,9 @@
       <c r="A1251" t="s">
         <v>4501</v>
       </c>
+      <c r="B1251">
+        <v>26</v>
+      </c>
       <c r="C1251" t="s">
         <v>4467</v>
       </c>
@@ -64425,6 +65300,9 @@
       <c r="A1252" t="s">
         <v>4506</v>
       </c>
+      <c r="B1252">
+        <v>18</v>
+      </c>
       <c r="C1252" t="s">
         <v>3278</v>
       </c>
@@ -64457,6 +65335,9 @@
       <c r="A1253" t="s">
         <v>4506</v>
       </c>
+      <c r="B1253">
+        <v>18</v>
+      </c>
       <c r="C1253" t="s">
         <v>3278</v>
       </c>
@@ -64489,6 +65370,9 @@
       <c r="A1254" t="s">
         <v>4506</v>
       </c>
+      <c r="B1254">
+        <v>18</v>
+      </c>
       <c r="C1254" t="s">
         <v>3278</v>
       </c>
@@ -64521,6 +65405,9 @@
       <c r="A1255" t="s">
         <v>4506</v>
       </c>
+      <c r="B1255">
+        <v>18</v>
+      </c>
       <c r="C1255" t="s">
         <v>3278</v>
       </c>
@@ -64553,6 +65440,9 @@
       <c r="A1256" t="s">
         <v>4506</v>
       </c>
+      <c r="B1256">
+        <v>19</v>
+      </c>
       <c r="C1256" t="s">
         <v>3278</v>
       </c>
@@ -64585,6 +65475,9 @@
       <c r="A1257" t="s">
         <v>4506</v>
       </c>
+      <c r="B1257">
+        <v>19</v>
+      </c>
       <c r="C1257" t="s">
         <v>3278</v>
       </c>
@@ -64617,6 +65510,9 @@
       <c r="A1258" t="s">
         <v>4506</v>
       </c>
+      <c r="B1258">
+        <v>19</v>
+      </c>
       <c r="C1258" t="s">
         <v>3278</v>
       </c>
@@ -64649,6 +65545,9 @@
       <c r="A1259" t="s">
         <v>4506</v>
       </c>
+      <c r="B1259">
+        <v>19</v>
+      </c>
       <c r="C1259" t="s">
         <v>3278</v>
       </c>
@@ -64681,6 +65580,9 @@
       <c r="A1260" t="s">
         <v>4506</v>
       </c>
+      <c r="B1260">
+        <v>19</v>
+      </c>
       <c r="C1260" t="s">
         <v>3278</v>
       </c>
@@ -64713,6 +65615,9 @@
       <c r="A1261" t="s">
         <v>4518</v>
       </c>
+      <c r="B1261">
+        <v>19</v>
+      </c>
       <c r="C1261" t="s">
         <v>3278</v>
       </c>
@@ -64751,6 +65656,9 @@
       <c r="A1262" t="s">
         <v>4521</v>
       </c>
+      <c r="B1262">
+        <v>19</v>
+      </c>
       <c r="C1262" t="s">
         <v>3278</v>
       </c>
@@ -64789,6 +65697,9 @@
       <c r="A1263" t="s">
         <v>4526</v>
       </c>
+      <c r="B1263">
+        <v>19</v>
+      </c>
       <c r="C1263" t="s">
         <v>3278</v>
       </c>
@@ -64827,6 +65738,9 @@
       <c r="A1264" t="s">
         <v>4531</v>
       </c>
+      <c r="B1264">
+        <v>19</v>
+      </c>
       <c r="C1264" t="s">
         <v>3278</v>
       </c>
@@ -64865,6 +65779,9 @@
       <c r="A1265" t="s">
         <v>4536</v>
       </c>
+      <c r="B1265">
+        <v>19</v>
+      </c>
       <c r="C1265" t="s">
         <v>3278</v>
       </c>
@@ -64903,6 +65820,9 @@
       <c r="A1266" t="s">
         <v>4541</v>
       </c>
+      <c r="B1266">
+        <v>19</v>
+      </c>
       <c r="C1266" t="s">
         <v>3278</v>
       </c>
@@ -64941,6 +65861,9 @@
       <c r="A1267" t="s">
         <v>4546</v>
       </c>
+      <c r="B1267">
+        <v>19</v>
+      </c>
       <c r="C1267" t="s">
         <v>3278</v>
       </c>
@@ -64979,6 +65902,9 @@
       <c r="A1268" t="s">
         <v>4551</v>
       </c>
+      <c r="B1268">
+        <v>19</v>
+      </c>
       <c r="C1268" t="s">
         <v>3278</v>
       </c>
@@ -65017,6 +65943,9 @@
       <c r="A1269" t="s">
         <v>4556</v>
       </c>
+      <c r="B1269">
+        <v>19</v>
+      </c>
       <c r="C1269" t="s">
         <v>3278</v>
       </c>
@@ -65055,6 +65984,9 @@
       <c r="A1270" t="s">
         <v>4561</v>
       </c>
+      <c r="B1270">
+        <v>19</v>
+      </c>
       <c r="C1270" t="s">
         <v>3278</v>
       </c>
@@ -65093,6 +66025,9 @@
       <c r="A1271" t="s">
         <v>4566</v>
       </c>
+      <c r="B1271">
+        <v>20</v>
+      </c>
       <c r="C1271" t="s">
         <v>3278</v>
       </c>
@@ -65131,6 +66066,9 @@
       <c r="A1272" t="s">
         <v>4571</v>
       </c>
+      <c r="B1272">
+        <v>20</v>
+      </c>
       <c r="C1272" t="s">
         <v>3278</v>
       </c>
@@ -65169,6 +66107,9 @@
       <c r="A1273" t="s">
         <v>4576</v>
       </c>
+      <c r="B1273">
+        <v>20</v>
+      </c>
       <c r="C1273" t="s">
         <v>3278</v>
       </c>
@@ -65207,6 +66148,9 @@
       <c r="A1274" t="s">
         <v>4581</v>
       </c>
+      <c r="B1274">
+        <v>20</v>
+      </c>
       <c r="C1274" t="s">
         <v>3278</v>
       </c>
@@ -65245,6 +66189,9 @@
       <c r="A1275" t="s">
         <v>4586</v>
       </c>
+      <c r="B1275">
+        <v>20</v>
+      </c>
       <c r="C1275" t="s">
         <v>3278</v>
       </c>
@@ -65283,6 +66230,9 @@
       <c r="A1276" t="s">
         <v>4591</v>
       </c>
+      <c r="B1276">
+        <v>20</v>
+      </c>
       <c r="C1276" t="s">
         <v>3278</v>
       </c>
@@ -65321,6 +66271,9 @@
       <c r="A1277" t="s">
         <v>4596</v>
       </c>
+      <c r="B1277">
+        <v>20</v>
+      </c>
       <c r="C1277" t="s">
         <v>3278</v>
       </c>
@@ -65359,6 +66312,9 @@
       <c r="A1278" t="s">
         <v>4599</v>
       </c>
+      <c r="B1278">
+        <v>20</v>
+      </c>
       <c r="C1278" t="s">
         <v>3278</v>
       </c>
@@ -65397,6 +66353,9 @@
       <c r="A1279" t="s">
         <v>4604</v>
       </c>
+      <c r="B1279">
+        <v>20</v>
+      </c>
       <c r="C1279" t="s">
         <v>3278</v>
       </c>
@@ -65435,6 +66394,9 @@
       <c r="A1280" t="s">
         <v>4608</v>
       </c>
+      <c r="B1280">
+        <v>24</v>
+      </c>
       <c r="C1280" t="s">
         <v>4609</v>
       </c>
@@ -65467,6 +66429,9 @@
       <c r="A1281" t="s">
         <v>4608</v>
       </c>
+      <c r="B1281">
+        <v>24</v>
+      </c>
       <c r="C1281" t="s">
         <v>4609</v>
       </c>
@@ -65499,6 +66464,9 @@
       <c r="A1282" t="s">
         <v>4608</v>
       </c>
+      <c r="B1282">
+        <v>24</v>
+      </c>
       <c r="C1282" t="s">
         <v>4609</v>
       </c>
@@ -65531,6 +66499,9 @@
       <c r="A1283" t="s">
         <v>4608</v>
       </c>
+      <c r="B1283">
+        <v>24</v>
+      </c>
       <c r="C1283" t="s">
         <v>4609</v>
       </c>
@@ -65563,6 +66534,9 @@
       <c r="A1284" t="s">
         <v>4608</v>
       </c>
+      <c r="B1284">
+        <v>24</v>
+      </c>
       <c r="C1284" t="s">
         <v>4609</v>
       </c>
@@ -65595,6 +66569,9 @@
       <c r="A1285" t="s">
         <v>4608</v>
       </c>
+      <c r="B1285">
+        <v>24</v>
+      </c>
       <c r="C1285" t="s">
         <v>4609</v>
       </c>
@@ -65627,6 +66604,9 @@
       <c r="A1286" t="s">
         <v>4608</v>
       </c>
+      <c r="B1286">
+        <v>24</v>
+      </c>
       <c r="C1286" t="s">
         <v>4609</v>
       </c>
@@ -65659,6 +66639,9 @@
       <c r="A1287" t="s">
         <v>4608</v>
       </c>
+      <c r="B1287">
+        <v>24</v>
+      </c>
       <c r="C1287" t="s">
         <v>4609</v>
       </c>
@@ -65691,6 +66674,9 @@
       <c r="A1288" t="s">
         <v>4608</v>
       </c>
+      <c r="B1288">
+        <v>24</v>
+      </c>
       <c r="C1288" t="s">
         <v>4609</v>
       </c>
@@ -65723,6 +66709,9 @@
       <c r="A1289" t="s">
         <v>4608</v>
       </c>
+      <c r="B1289">
+        <v>24</v>
+      </c>
       <c r="C1289" t="s">
         <v>4609</v>
       </c>
@@ -65755,6 +66744,9 @@
       <c r="A1290" t="s">
         <v>4608</v>
       </c>
+      <c r="B1290">
+        <v>24</v>
+      </c>
       <c r="C1290" t="s">
         <v>4609</v>
       </c>
@@ -65787,6 +66779,9 @@
       <c r="A1291" t="s">
         <v>4608</v>
       </c>
+      <c r="B1291">
+        <v>24</v>
+      </c>
       <c r="C1291" t="s">
         <v>4609</v>
       </c>
@@ -65819,6 +66814,9 @@
       <c r="A1292" t="s">
         <v>4608</v>
       </c>
+      <c r="B1292">
+        <v>25</v>
+      </c>
       <c r="C1292" t="s">
         <v>4609</v>
       </c>
@@ -65851,6 +66849,9 @@
       <c r="A1293" t="s">
         <v>4627</v>
       </c>
+      <c r="B1293">
+        <v>25</v>
+      </c>
       <c r="C1293" t="s">
         <v>4609</v>
       </c>
@@ -65889,6 +66890,9 @@
       <c r="A1294" t="s">
         <v>4632</v>
       </c>
+      <c r="B1294">
+        <v>25</v>
+      </c>
       <c r="C1294" t="s">
         <v>4609</v>
       </c>
@@ -65927,6 +66931,9 @@
       <c r="A1295" t="s">
         <v>4637</v>
       </c>
+      <c r="B1295">
+        <v>25</v>
+      </c>
       <c r="C1295" t="s">
         <v>4609</v>
       </c>
@@ -65965,6 +66972,9 @@
       <c r="A1296" t="s">
         <v>4641</v>
       </c>
+      <c r="B1296">
+        <v>25</v>
+      </c>
       <c r="C1296" t="s">
         <v>4609</v>
       </c>
@@ -66003,6 +67013,9 @@
       <c r="A1297" t="s">
         <v>4644</v>
       </c>
+      <c r="B1297">
+        <v>25</v>
+      </c>
       <c r="C1297" t="s">
         <v>4609</v>
       </c>
@@ -66041,6 +67054,9 @@
       <c r="A1298" t="s">
         <v>4649</v>
       </c>
+      <c r="B1298">
+        <v>25</v>
+      </c>
       <c r="C1298" t="s">
         <v>4609</v>
       </c>
@@ -66079,6 +67095,9 @@
       <c r="A1299" t="s">
         <v>4654</v>
       </c>
+      <c r="B1299">
+        <v>25</v>
+      </c>
       <c r="C1299" t="s">
         <v>4609</v>
       </c>
@@ -66117,6 +67136,9 @@
       <c r="A1300" t="s">
         <v>4658</v>
       </c>
+      <c r="B1300">
+        <v>25</v>
+      </c>
       <c r="C1300" t="s">
         <v>4609</v>
       </c>
@@ -66155,6 +67177,9 @@
       <c r="A1301" t="s">
         <v>4663</v>
       </c>
+      <c r="B1301">
+        <v>35</v>
+      </c>
       <c r="C1301" t="s">
         <v>4664</v>
       </c>
@@ -66187,6 +67212,9 @@
       <c r="A1302" t="s">
         <v>4663</v>
       </c>
+      <c r="B1302">
+        <v>35</v>
+      </c>
       <c r="C1302" t="s">
         <v>4664</v>
       </c>
@@ -66219,6 +67247,9 @@
       <c r="A1303" t="s">
         <v>4663</v>
       </c>
+      <c r="B1303">
+        <v>35</v>
+      </c>
       <c r="C1303" t="s">
         <v>4664</v>
       </c>
@@ -66251,6 +67282,9 @@
       <c r="A1304" t="s">
         <v>4663</v>
       </c>
+      <c r="B1304">
+        <v>35</v>
+      </c>
       <c r="C1304" t="s">
         <v>4664</v>
       </c>
@@ -66283,6 +67317,9 @@
       <c r="A1305" t="s">
         <v>4666</v>
       </c>
+      <c r="B1305">
+        <v>36</v>
+      </c>
       <c r="C1305" t="s">
         <v>4664</v>
       </c>
@@ -66321,6 +67358,9 @@
       <c r="A1306" t="s">
         <v>4666</v>
       </c>
+      <c r="B1306">
+        <v>36</v>
+      </c>
       <c r="C1306" t="s">
         <v>4664</v>
       </c>
@@ -66359,6 +67399,9 @@
       <c r="A1307" t="s">
         <v>4669</v>
       </c>
+      <c r="B1307">
+        <v>23</v>
+      </c>
       <c r="C1307" t="s">
         <v>2783</v>
       </c>
@@ -66391,6 +67434,9 @@
       <c r="A1308" t="s">
         <v>4669</v>
       </c>
+      <c r="B1308">
+        <v>23</v>
+      </c>
       <c r="C1308" t="s">
         <v>2783</v>
       </c>
@@ -66423,6 +67469,9 @@
       <c r="A1309" t="s">
         <v>4669</v>
       </c>
+      <c r="B1309">
+        <v>23</v>
+      </c>
       <c r="C1309" t="s">
         <v>2783</v>
       </c>
@@ -66455,6 +67504,9 @@
       <c r="A1310" t="s">
         <v>4669</v>
       </c>
+      <c r="B1310">
+        <v>23</v>
+      </c>
       <c r="C1310" t="s">
         <v>2783</v>
       </c>
@@ -66487,6 +67539,9 @@
       <c r="A1311" t="s">
         <v>4669</v>
       </c>
+      <c r="B1311">
+        <v>23</v>
+      </c>
       <c r="C1311" t="s">
         <v>2783</v>
       </c>
@@ -66519,6 +67574,9 @@
       <c r="A1312" t="s">
         <v>4669</v>
       </c>
+      <c r="B1312">
+        <v>23</v>
+      </c>
       <c r="C1312" t="s">
         <v>2783</v>
       </c>
@@ -66551,6 +67609,9 @@
       <c r="A1313" t="s">
         <v>4685</v>
       </c>
+      <c r="B1313">
+        <v>23</v>
+      </c>
       <c r="C1313" t="s">
         <v>2783</v>
       </c>
@@ -66589,6 +67650,9 @@
       <c r="A1314" t="s">
         <v>4688</v>
       </c>
+      <c r="B1314">
+        <v>23</v>
+      </c>
       <c r="C1314" t="s">
         <v>2783</v>
       </c>
@@ -66627,6 +67691,9 @@
       <c r="A1315" t="s">
         <v>4693</v>
       </c>
+      <c r="B1315">
+        <v>23</v>
+      </c>
       <c r="C1315" t="s">
         <v>2783</v>
       </c>
@@ -66665,6 +67732,9 @@
       <c r="A1316" t="s">
         <v>4696</v>
       </c>
+      <c r="B1316">
+        <v>23</v>
+      </c>
       <c r="C1316" t="s">
         <v>2783</v>
       </c>
@@ -66703,6 +67773,9 @@
       <c r="A1317" t="s">
         <v>4701</v>
       </c>
+      <c r="B1317">
+        <v>23</v>
+      </c>
       <c r="C1317" t="s">
         <v>2783</v>
       </c>
@@ -66741,6 +67814,9 @@
       <c r="A1318" t="s">
         <v>4706</v>
       </c>
+      <c r="B1318">
+        <v>23</v>
+      </c>
       <c r="C1318" t="s">
         <v>2783</v>
       </c>
@@ -66779,6 +67855,9 @@
       <c r="A1319" t="s">
         <v>4711</v>
       </c>
+      <c r="B1319">
+        <v>23</v>
+      </c>
       <c r="C1319" t="s">
         <v>2783</v>
       </c>
@@ -66817,6 +67896,9 @@
       <c r="A1320" t="s">
         <v>4714</v>
       </c>
+      <c r="B1320">
+        <v>24</v>
+      </c>
       <c r="C1320" t="s">
         <v>2783</v>
       </c>
@@ -66855,6 +67937,9 @@
       <c r="A1321" t="s">
         <v>4719</v>
       </c>
+      <c r="B1321">
+        <v>24</v>
+      </c>
       <c r="C1321" t="s">
         <v>2783</v>
       </c>
@@ -66893,6 +67978,9 @@
       <c r="A1322" t="s">
         <v>4724</v>
       </c>
+      <c r="B1322">
+        <v>24</v>
+      </c>
       <c r="C1322" t="s">
         <v>2783</v>
       </c>
@@ -66931,6 +68019,9 @@
       <c r="A1323" t="s">
         <v>4729</v>
       </c>
+      <c r="B1323">
+        <v>24</v>
+      </c>
       <c r="C1323" t="s">
         <v>2783</v>
       </c>
@@ -66969,6 +68060,9 @@
       <c r="A1324" t="s">
         <v>4734</v>
       </c>
+      <c r="B1324">
+        <v>31</v>
+      </c>
       <c r="C1324" t="s">
         <v>4735</v>
       </c>
@@ -67007,6 +68101,9 @@
       <c r="A1325" t="s">
         <v>4734</v>
       </c>
+      <c r="B1325">
+        <v>31</v>
+      </c>
       <c r="C1325" t="s">
         <v>4735</v>
       </c>
@@ -67045,6 +68142,9 @@
       <c r="A1326" t="s">
         <v>4738</v>
       </c>
+      <c r="B1326">
+        <v>27</v>
+      </c>
       <c r="C1326" t="s">
         <v>4739</v>
       </c>
@@ -67077,6 +68177,9 @@
       <c r="A1327" t="s">
         <v>4741</v>
       </c>
+      <c r="B1327">
+        <v>27</v>
+      </c>
       <c r="C1327" t="s">
         <v>4739</v>
       </c>
@@ -67115,6 +68218,9 @@
       <c r="A1328" t="s">
         <v>4741</v>
       </c>
+      <c r="B1328">
+        <v>27</v>
+      </c>
       <c r="C1328" t="s">
         <v>4739</v>
       </c>
@@ -67153,6 +68259,9 @@
       <c r="A1329" t="s">
         <v>4741</v>
       </c>
+      <c r="B1329">
+        <v>27</v>
+      </c>
       <c r="C1329" t="s">
         <v>4739</v>
       </c>
@@ -67191,6 +68300,9 @@
       <c r="A1330" t="s">
         <v>4741</v>
       </c>
+      <c r="B1330">
+        <v>27</v>
+      </c>
       <c r="C1330" t="s">
         <v>4739</v>
       </c>
@@ -67227,5 +68339,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>